--- a/backend/app/templates/resultado_template.xlsx
+++ b/backend/app/templates/resultado_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joanat/Desktop/Rue/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joanat/Desktop/Rue/Templates excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{264E1019-D74C-E84E-A230-AF4D61B993D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4C2336-7C5F-6C46-857F-E16E68F70DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17980" yWindow="9000" windowWidth="28040" windowHeight="17440" xr2:uid="{197D696D-6482-7D42-93B4-B52AFE6E08EA}"/>
+    <workbookView xWindow="12400" yWindow="6600" windowWidth="28040" windowHeight="17440" xr2:uid="{197D696D-6482-7D42-93B4-B52AFE6E08EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,47 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>NCH</t>
+  </si>
+  <si>
+    <t>IDFED Jugador</t>
+  </si>
+  <si>
+    <t>IDFED Pareja</t>
+  </si>
+  <si>
+    <t>Partida</t>
+  </si>
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Dif</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -54,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +103,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +464,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691A3F0A-EB6B-B749-9D6B-BD44573C33F5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="191" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="20.83203125" customWidth="1"/>
+    <col min="6" max="12" width="5.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>